--- a/nodeiistt/evidence.xlsx
+++ b/nodeiistt/evidence.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="51">
   <si>
     <t>TeamName</t>
   </si>
@@ -92,34 +92,91 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>136AEF507B7B7256BD9400927E0BF4D7A2A97FA1BB9C0F0470EB49764BD3B438</t>
+  </si>
+  <si>
+    <t>nodeistnft</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>6005E1551121039F197FE56E95D9AC675C54603F4DAF36067A61D72AFAFD9D18</t>
+  </si>
+  <si>
+    <t>ndstnft1</t>
+  </si>
+  <si>
+    <t>95B10B7D907C35FA5F3585BED847C0498443A94C0A3F5539D981991B1BF2E95B</t>
+  </si>
+  <si>
+    <t>ndstnft2</t>
+  </si>
+  <si>
+    <t>70AC37F5A1FCA19AEBB060875478D588C6FBEB9A45A68E374322059462D0D2E9</t>
+  </si>
+  <si>
+    <t>ndstnft3</t>
+  </si>
+  <si>
+    <t>78B4F0E8D34CADE728114A74E7E94C97BFF3A0B48F83BAE7C4AD5CAFF075AFE3</t>
+  </si>
+  <si>
+    <t>ndstnft4</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
+    <t>211DFFB96FEAA8A992F550484982C63F1C8D279A4AD989467D183066F8755655</t>
+  </si>
+  <si>
+    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/nodeistnft</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>classId:</t>
+  </si>
+  <si>
+    <t>contract(cw-721):</t>
+  </si>
+  <si>
+    <t>stars1lgfwmg4vcvjvtffhts5a35z4enk4s32lwm3r5ju05h40detmzues9w3wst</t>
+  </si>
+  <si>
+    <t>A4352C1E8F2581718A9B96F79C830444502EADD5F6AD2EFE84E8316D5E03BE7D</t>
+  </si>
+  <si>
+    <t>ibc/6180E5A0AFE554AA5CC5AEEF90BA95AB3EEE9C6B7554B45714BE30B3F6A2129B</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>2F740CA1EF2C7AA80318BF7DBC5CA124240C55EECDAA800257B1A8A460C5E193</t>
+  </si>
+  <si>
+    <t>nft-transfer/channel-3/nodeistnft</t>
+  </si>
+  <si>
+    <t>collection:</t>
+  </si>
+  <si>
+    <t>7F02D26D3C822D8D13510FF4B82B73913245A634EB818E48232FBC6AC4F663DC</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>555D3CFE8016FEEE10B7624EC110955FDB6956F8AC40A7982E380AFB6D0861EE</t>
+  </si>
+  <si>
+    <t>ibc class on chain</t>
   </si>
   <si>
     <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
   </si>
   <si>
     <t>tx hash on that chain</t>
@@ -142,12 +199,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -165,6 +222,128 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -175,106 +354,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,7 +384,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,29 +397,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -344,55 +419,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,127 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,16 +617,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +648,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,16 +677,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,8 +694,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,164 +710,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1172,7 +1259,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1213,28 +1300,28 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1269,10 +1356,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1306,10 +1393,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1343,10 +1430,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1380,10 +1467,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1404,7 +1491,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="31.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:2">
@@ -1412,25 +1499,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1459,25 +1546,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1506,25 +1593,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1553,25 +1640,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1600,25 +1687,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1647,25 +1734,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +1768,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1731,25 +1818,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1778,25 +1865,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1824,12 +1911,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1860,12 +1947,12 @@
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1896,12 +1983,12 @@
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1932,12 +2019,12 @@
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1953,13 +2040,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="17.8857142857143" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
@@ -1978,13 +2065,46 @@
     </row>
     <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1997,13 +2117,170 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E4" sqref="E4:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="17.8857142857143" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="5:6">
+      <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="5:6">
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="17.8857142857143" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="47.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:4">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" ht="12" customHeight="1" spans="5:5">
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" ht="15" spans="5:6">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" ht="14.25" spans="5:6">
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="8" ht="15" spans="5:6">
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="5:6">
+      <c r="E9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="17.8857142857143" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
@@ -2020,21 +2297,37 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="5:6">
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="5:6">
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2044,116 +2337,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.8857142857143" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.8857142857143" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17.8857142857143" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -2172,21 +2365,37 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="5:6">
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="5:6">
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2220,10 +2429,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2257,10 +2466,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/nodeiistt/evidence.xlsx
+++ b/nodeiistt/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="50">
   <si>
     <t>TeamName</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>7F02D26D3C822D8D13510FF4B82B73913245A634EB818E48232FBC6AC4F663DC</t>
-  </si>
-  <si>
-    <t>gon-irishub-1</t>
   </si>
   <si>
     <t>555D3CFE8016FEEE10B7624EC110955FDB6956F8AC40A7982E380AFB6D0861EE</t>
@@ -199,12 +196,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -226,20 +223,8 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -254,19 +239,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,22 +263,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,6 +307,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -354,8 +331,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,7 +356,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,15 +377,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,25 +404,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,157 +572,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,15 +595,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -676,6 +652,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -693,15 +678,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -710,141 +686,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -853,15 +838,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1258,7 +1243,7 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1356,10 +1341,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1393,10 +1378,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1430,10 +1415,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1467,10 +1452,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1504,20 +1489,20 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1551,20 +1536,20 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1598,20 +1583,20 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1645,20 +1630,20 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1692,20 +1677,20 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1739,20 +1724,20 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1823,20 +1808,20 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1870,20 +1855,20 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1911,12 +1896,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1947,12 +1932,12 @@
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1983,12 +1968,12 @@
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2019,12 +2004,12 @@
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2120,7 +2105,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:G5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -2154,23 +2139,23 @@
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" ht="15" spans="5:6">
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="5:6">
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2187,7 +2172,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -2222,7 +2207,7 @@
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2233,7 +2218,7 @@
       <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2241,23 +2226,23 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" ht="15" spans="5:6">
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" ht="14.25" spans="5:6">
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="4"/>
     </row>
     <row r="8" ht="15" spans="5:6">
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="5:6">
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -2277,7 +2262,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -2310,23 +2295,23 @@
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>42</v>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" ht="15" spans="5:6">
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="5:6">
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2342,8 +2327,8 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -2370,7 +2355,7 @@
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>36</v>
@@ -2378,20 +2363,20 @@
       <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>42</v>
+      <c r="D2" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" ht="15" spans="5:6">
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="5:6">
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -2429,10 +2414,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2466,10 +2451,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/nodeiistt/evidence.xlsx
+++ b/nodeiistt/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="45">
   <si>
     <t>TeamName</t>
   </si>
@@ -131,21 +131,12 @@
     <t>211DFFB96FEAA8A992F550484982C63F1C8D279A4AD989467D183066F8755655</t>
   </si>
   <si>
-    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/nodeistnft</t>
+    <t>stars1lgfwmg4vcvjvtffhts5a35z4enk4s32lwm3r5ju05h40detmzues9w3wst</t>
   </si>
   <si>
     <t>elgafar-1</t>
   </si>
   <si>
-    <t>classId:</t>
-  </si>
-  <si>
-    <t>contract(cw-721):</t>
-  </si>
-  <si>
-    <t>stars1lgfwmg4vcvjvtffhts5a35z4enk4s32lwm3r5ju05h40detmzues9w3wst</t>
-  </si>
-  <si>
     <t>A4352C1E8F2581718A9B96F79C830444502EADD5F6AD2EFE84E8316D5E03BE7D</t>
   </si>
   <si>
@@ -156,12 +147,6 @@
   </si>
   <si>
     <t>2F740CA1EF2C7AA80318BF7DBC5CA124240C55EECDAA800257B1A8A460C5E193</t>
-  </si>
-  <si>
-    <t>nft-transfer/channel-3/nodeistnft</t>
-  </si>
-  <si>
-    <t>collection:</t>
   </si>
   <si>
     <t>7F02D26D3C822D8D13510FF4B82B73913245A634EB818E48232FBC6AC4F663DC</t>
@@ -197,8 +182,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -227,20 +212,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,24 +235,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,6 +257,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,16 +287,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,9 +308,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,7 +325,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,14 +347,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,21 +362,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,19 +389,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,13 +521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,145 +545,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,16 +584,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,6 +632,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -661,21 +670,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -686,150 +680,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,10 +1326,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1378,10 +1363,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1415,10 +1400,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1452,10 +1437,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1489,20 +1474,20 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1536,20 +1521,20 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1583,20 +1568,20 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1630,20 +1615,20 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1677,20 +1662,20 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1724,20 +1709,20 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1808,20 +1793,20 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1855,20 +1840,20 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1896,12 +1881,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1932,12 +1917,12 @@
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1968,12 +1953,12 @@
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2004,12 +1989,12 @@
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2105,7 +2090,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -2144,20 +2129,12 @@
       </c>
     </row>
     <row r="4" ht="15" spans="5:6">
-      <c r="E4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" ht="14.25" spans="5:6">
-      <c r="E5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2172,7 +2149,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -2199,27 +2176,30 @@
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="12" customHeight="1" spans="5:5">
@@ -2234,20 +2214,12 @@
       <c r="F6" s="4"/>
     </row>
     <row r="8" ht="15" spans="5:6">
-      <c r="E8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" ht="14.25" spans="5:6">
-      <c r="E9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2261,8 +2233,8 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -2287,7 +2259,7 @@
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>30</v>
@@ -2300,20 +2272,12 @@
       </c>
     </row>
     <row r="6" ht="15" spans="5:6">
-      <c r="E6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" ht="14.25" spans="5:6">
-      <c r="E7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2327,8 +2291,8 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -2355,33 +2319,25 @@
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" ht="15" spans="5:6">
-      <c r="E6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" ht="14.25" spans="5:6">
-      <c r="E7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2414,10 +2370,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2451,10 +2407,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/nodeiistt/evidence.xlsx
+++ b/nodeiistt/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" firstSheet="7" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="90">
   <si>
     <t>TeamName</t>
   </si>
@@ -155,19 +155,154 @@
     <t>555D3CFE8016FEEE10B7624EC110955FDB6956F8AC40A7982E380AFB6D0861EE</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>ibc/A40CD3D0A45460B9213B21140CE6640C4AFE496F10447784FB2AC34A26D5A8E0</t>
+  </si>
+  <si>
+    <t>ibc/5EA1741B323CFE4A8C5F403E3697A8C585DCBD665605277FDA800EB746378D6C</t>
+  </si>
+  <si>
+    <t>bft5</t>
+  </si>
+  <si>
+    <t>ibc/0E5766B7D0AE8E97E314C19FA195DBDBF84EDDF2B38221EB5E8740E96C563E70</t>
+  </si>
+  <si>
+    <t>nft7</t>
+  </si>
+  <si>
+    <t>ibc/CCEFBD39B3D6E27CF0B4B61BC04B80ED293F5A31A45E6401C3206FD67951A022</t>
+  </si>
+  <si>
+    <t>nft11</t>
+  </si>
+  <si>
+    <t>ibc/12E32D8A5C370E7321BC00DB03C63799C5E610F7BC07D5005165B58F55E17ABD</t>
+  </si>
+  <si>
+    <t>nft12</t>
+  </si>
+  <si>
+    <t>ibc/673EC40CA20846995DEA232C80EC911A36D75E0537DDEDA8570D0B473BB84CD3</t>
+  </si>
+  <si>
+    <t>nft14</t>
+  </si>
+  <si>
+    <t>74D3EC284B826094734E15749482EB205EAD435FF7BAC97BECC8619375F751B6</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>DA3CD7B691ED46658D85E40B9C29421B9170855839BFAD05A98E28AFAD1D0D23</t>
+  </si>
+  <si>
+    <t>A518421A8E04A2A53E50880FD4B4DF3CF08B8BE1E4E8D0CF995F55EBD3EE9304</t>
+  </si>
+  <si>
+    <t>0B15664C302875164CB52526C3978742B173EF95A33ACB859521D797BE849821</t>
+  </si>
+  <si>
+    <t>7FB882C4B8DBC11DAB0125B42470C7CBC66EBE5CA5D0A3A27357E084AEB9464C</t>
+  </si>
+  <si>
+    <t>3E2EB90244EE3A05628417144EFE9EBE9C2E8387611E386D8D17A27409681631</t>
+  </si>
+  <si>
+    <t>2185595B2F117FD011DFCFE6D267CCFD39374D9E2FDA469B530487538134B127</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>4E0336D271A8937331A1843DD251A53E1DFCEE46B72E856B30AAC34B942323DC</t>
+  </si>
+  <si>
+    <t>2CF4F048F3F47B31F4C8EC79590463CF9D12255D5FEEAD362AC1F9AEBE408A97</t>
+  </si>
+  <si>
+    <t>7F41A20BBEC64B1A65D68A7C44E831D98B8B1C5CB9FA3472AA8152D224846A7A</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>B4E94384FCABCB66FC732E886105F4BB6BE73E21C22B36CF0C0EAD5A9FF9241F</t>
+  </si>
+  <si>
+    <t>166775EB00EAAA17908771BCCD6291EDDB6FF17EF56735A08EE4C51EE01C4377</t>
+  </si>
+  <si>
+    <t>F31B00F6D859ECDD50EE438C4D540D86973D9E04D66BDEB5867C2374AA4E41A6</t>
+  </si>
+  <si>
+    <t>38EBFD447A44D685921A06A933A845D337EC9483C996D869E9AE3D46EC428199</t>
+  </si>
+  <si>
+    <t>5F92D251FF8B103E0137866F767E483D34B4C9F6A5B90D666A79D2343724793A</t>
+  </si>
+  <si>
+    <t>60FC80740C5E50D3EAF966AF08166695DF18E9CA922E68192782CE19215F9C7B</t>
+  </si>
+  <si>
+    <t>5E2A6BC5FC790C305D473F62289805CE28A5DDBC42458119452807F159C50009</t>
+  </si>
+  <si>
+    <t>E0F99AB2B759BAE79F948CEFF6DE333083172C03F8BEB3039974DB106223B475</t>
+  </si>
+  <si>
+    <t>0FE2DF28561D08C200499A86CEC4358D297CCEF794114233291525E8F3CDC5E8</t>
+  </si>
+  <si>
+    <t>90150589F5AE9A7C3A8BBD4086BEC7F8CAF8F7045EE64BDAA8AAB616BE452B85</t>
+  </si>
+  <si>
+    <t>CE2310D14C4D7B12A5E55A8BFEBCC8B9B58B431CAD9CBE03727A5EEA4B2C0DD3</t>
+  </si>
+  <si>
+    <t>9E090DD29941F50214F5407F244B0D4C7FBBADBCCFBBF4A399353E9BE2005FAE</t>
+  </si>
+  <si>
+    <t>7F1E7E28FC1BEC1E91310B1105BB3227A907987C976D826F95EA31C227355934</t>
+  </si>
+  <si>
+    <t>721365573AD8DFC787B59E129EAC719721D0756C1B4D906BE8C9D3BF0DE93D3C</t>
+  </si>
+  <si>
+    <t>C8A81CE45FD5034E89755F3516F38D864945B06C1D9DD311721AC866230212E5</t>
+  </si>
+  <si>
+    <t>1819C5B936B96F49DD5CDE493F9F7884E033D699D309664071BA185873C8643B</t>
+  </si>
+  <si>
+    <t>A25D286C8CD22151C0BC035BC540BF3E9534CD518FEFD84437EBCD21995FFCD5</t>
+  </si>
+  <si>
+    <t>C8506B5B62019679382ECC108DF4646CF13BFDC4B1917325FD12668518590722</t>
+  </si>
+  <si>
+    <t>8BC5AEE0ECCCADE21C8C3D23878710F50CDF83AB823E80E0E375597941AD6334</t>
+  </si>
+  <si>
+    <t>F2C58D765C48BFE8B76623A2D078A1E1064FE95311FAB62D9C59244C938485C3</t>
+  </si>
+  <si>
+    <t>8C96BBA8DA57CB120F3EA05F92F553CFD250AE4DE3803CA0129740D02D6A93C3</t>
+  </si>
+  <si>
+    <t>4DBF8282A025CDADEE288F9A047293B32C9DE5F849F348207F55AB2AD0CB95EF</t>
+  </si>
+  <si>
+    <t>B29194C8EB524A948F0898CEE5270709411A298FD9B1ABAA6B36612866BF7075</t>
+  </si>
+  <si>
+    <t>D71FA15A830E6C0C3FDF147672A1BDF2EACBD0BF9CF8D0F5FDBD9ADA75ABD731</t>
+  </si>
+  <si>
+    <t>07B9C23D5233F0850FE6D466A180929DD4C012A980DE6BDD3FE9849F797D923F</t>
+  </si>
+  <si>
+    <t>CAF9BD1AEE10E07A26C2178287AEFD443C70B4FFD40EABFF17DCD8BAC12A72A5</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -213,7 +348,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,7 +375,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,36 +389,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,16 +413,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,8 +434,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,14 +459,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,9 +489,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,13 +524,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,169 +674,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,30 +715,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -632,21 +743,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -670,6 +766,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -680,149 +791,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -832,9 +971,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1229,7 +1365,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1270,28 +1406,28 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1308,7 +1444,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1326,10 +1462,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1345,7 +1481,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1363,10 +1499,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1518,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1400,10 +1536,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1419,7 +1555,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1437,10 +1573,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1453,13 +1589,13 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="31.4285714285714" customWidth="1"/>
   </cols>
@@ -1474,20 +1610,34 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1500,13 +1650,13 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1521,20 +1671,34 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:1">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1547,13 +1711,13 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1568,20 +1732,34 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1594,13 +1772,13 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1615,20 +1793,34 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:1">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:2">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1641,13 +1833,13 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1662,20 +1854,34 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:1">
+        <v>69</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>70</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:2">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1688,13 +1894,13 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1709,20 +1915,34 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:1">
+        <v>73</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:2">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1772,13 +1992,13 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1793,20 +2013,50 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:1">
+        <v>77</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>78</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:2">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:2">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1819,13 +2069,13 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -1840,20 +2090,50 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:1">
+        <v>83</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>84</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:2">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:2">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1881,12 +2161,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1917,12 +2197,12 @@
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1953,12 +2233,12 @@
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1989,12 +2269,12 @@
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2124,17 +2404,17 @@
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" ht="15" spans="5:6">
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" ht="14.25" spans="5:6">
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2184,7 +2464,7 @@
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2198,28 +2478,28 @@
       <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" ht="12" customHeight="1" spans="5:5">
-      <c r="E4" s="9"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" ht="15" spans="5:6">
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" ht="14.25" spans="5:6">
-      <c r="E6" s="8"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="8" ht="15" spans="5:6">
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" ht="14.25" spans="5:6">
-      <c r="E9" s="8"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2233,7 +2513,7 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2261,23 +2541,23 @@
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" ht="15" spans="5:6">
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" ht="14.25" spans="5:6">
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2321,23 +2601,23 @@
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" ht="15" spans="5:6">
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" ht="14.25" spans="5:6">
-      <c r="E7" s="8"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2352,7 +2632,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2373,7 +2653,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2669,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2407,10 +2687,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/nodeiistt/evidence.xlsx
+++ b/nodeiistt/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" firstSheet="7" activeTab="20"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" firstSheet="3" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -188,61 +188,61 @@
     <t>nft14</t>
   </si>
   <si>
-    <t>74D3EC284B826094734E15749482EB205EAD435FF7BAC97BECC8619375F751B6</t>
+    <t>68046EECE48FF1D6F4AEA64F48A02122F25E7511061DA394940AB70FDB38C1A4</t>
   </si>
   <si>
     <t>gon-irishub-1</t>
   </si>
   <si>
-    <t>DA3CD7B691ED46658D85E40B9C29421B9170855839BFAD05A98E28AFAD1D0D23</t>
-  </si>
-  <si>
-    <t>A518421A8E04A2A53E50880FD4B4DF3CF08B8BE1E4E8D0CF995F55EBD3EE9304</t>
-  </si>
-  <si>
-    <t>0B15664C302875164CB52526C3978742B173EF95A33ACB859521D797BE849821</t>
-  </si>
-  <si>
-    <t>7FB882C4B8DBC11DAB0125B42470C7CBC66EBE5CA5D0A3A27357E084AEB9464C</t>
-  </si>
-  <si>
-    <t>3E2EB90244EE3A05628417144EFE9EBE9C2E8387611E386D8D17A27409681631</t>
-  </si>
-  <si>
-    <t>2185595B2F117FD011DFCFE6D267CCFD39374D9E2FDA469B530487538134B127</t>
+    <t>087B9902304C62F6A80F1F9EBFEAE7B09EB9052FCC91ADA1F9F8062F3DCAD551</t>
+  </si>
+  <si>
+    <t>2D1050189F14D1781653007AC3EBAD59F8615380C0415380F3E16C681BA9FA95</t>
+  </si>
+  <si>
+    <t>2D4089B5C8B6D4C7A9093385AE9913D25ECABE4E426665A683E2EA09E3E67463</t>
+  </si>
+  <si>
+    <t>B75078B3B5405A1BF4B0640F2678B8E4790EC1577E7E39AF296EFEA832278665</t>
+  </si>
+  <si>
+    <t>09E23A0E24DC5D175E8A087D564B4F70D2CDEBEA988E0097412B3014157E7491</t>
+  </si>
+  <si>
+    <t>317AE14B4807351AB5771315703C98D8EB1F8CACF7F2F9057B3C02FD3576122C</t>
   </si>
   <si>
     <t>gon-flixnet-1</t>
   </si>
   <si>
-    <t>4E0336D271A8937331A1843DD251A53E1DFCEE46B72E856B30AAC34B942323DC</t>
-  </si>
-  <si>
-    <t>2CF4F048F3F47B31F4C8EC79590463CF9D12255D5FEEAD362AC1F9AEBE408A97</t>
-  </si>
-  <si>
-    <t>7F41A20BBEC64B1A65D68A7C44E831D98B8B1C5CB9FA3472AA8152D224846A7A</t>
+    <t>856E287ADEBB374DBC63F5AFDC022622AE8CD3AE1B77EAC04EED2556A88F99AC</t>
+  </si>
+  <si>
+    <t>7EA30B964E5CE0574487657D3CBDEFBE3E5B42810F3B2040B2F9904ADC43CA34</t>
+  </si>
+  <si>
+    <t>E9988C4077F43A4F7CC53D396F58C16B58083BDDA87E2C874F43F66792E7483C</t>
   </si>
   <si>
     <t>uni-6</t>
   </si>
   <si>
-    <t>B4E94384FCABCB66FC732E886105F4BB6BE73E21C22B36CF0C0EAD5A9FF9241F</t>
-  </si>
-  <si>
-    <t>166775EB00EAAA17908771BCCD6291EDDB6FF17EF56735A08EE4C51EE01C4377</t>
-  </si>
-  <si>
-    <t>F31B00F6D859ECDD50EE438C4D540D86973D9E04D66BDEB5867C2374AA4E41A6</t>
-  </si>
-  <si>
-    <t>38EBFD447A44D685921A06A933A845D337EC9483C996D869E9AE3D46EC428199</t>
-  </si>
-  <si>
-    <t>5F92D251FF8B103E0137866F767E483D34B4C9F6A5B90D666A79D2343724793A</t>
-  </si>
-  <si>
-    <t>60FC80740C5E50D3EAF966AF08166695DF18E9CA922E68192782CE19215F9C7B</t>
+    <t>6F003389C760F2D643858DAD44D50FCED3E82C593B5F2C7B2257E1E2B1B60602</t>
+  </si>
+  <si>
+    <t>13BD44F1E9E9F56594D1083E89DD2C8A5254A4FE28D1DF0C9F7D6F5BD7DEB2E9</t>
+  </si>
+  <si>
+    <t>101208112FBEC58317FFA4C7B6B158E17D7A536DCBCB4A0982ED22D5D3CDF272</t>
+  </si>
+  <si>
+    <t>97CB3B41F946FA191DE41F4AE8CDEDBC3399BE6164B2EA8F5112441946406506</t>
+  </si>
+  <si>
+    <t>CC23BCC18BDCF78FD4DDE6E28F9CA2BED734078E641C32992116A5FE1C0A9B89</t>
+  </si>
+  <si>
+    <t>F833C629C3DF41D1B4514E9874B5C2C9409B92163E2A2A24EF9EFEB72FA10EDB</t>
   </si>
   <si>
     <t>5E2A6BC5FC790C305D473F62289805CE28A5DDBC42458119452807F159C50009</t>
@@ -318,8 +318,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -348,6 +348,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -359,23 +366,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,16 +390,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,22 +444,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -473,9 +467,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,14 +490,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,13 +524,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +656,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,13 +680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,139 +698,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,6 +715,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -729,15 +753,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,21 +807,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -818,138 +818,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1592,7 +1592,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1653,7 +1653,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1714,7 +1714,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1774,8 +1774,8 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -2071,7 +2071,7 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/nodeiistt/evidence.xlsx
+++ b/nodeiistt/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -241,61 +241,61 @@
     <t>chain id</t>
   </si>
   <si>
-    <t>74D3EC284B826094734E15749482EB205EAD435FF7BAC97BECC8619375F751B6</t>
+    <t>68046EECE48FF1D6F4AEA64F48A02122F25E7511061DA394940AB70FDB38C1A4</t>
   </si>
   <si>
     <t>gon-irishub-1</t>
   </si>
   <si>
-    <t>DA3CD7B691ED46658D85E40B9C29421B9170855839BFAD05A98E28AFAD1D0D23</t>
-  </si>
-  <si>
-    <t>A518421A8E04A2A53E50880FD4B4DF3CF08B8BE1E4E8D0CF995F55EBD3EE9304</t>
-  </si>
-  <si>
-    <t>0B15664C302875164CB52526C3978742B173EF95A33ACB859521D797BE849821</t>
-  </si>
-  <si>
-    <t>7FB882C4B8DBC11DAB0125B42470C7CBC66EBE5CA5D0A3A27357E084AEB9464C</t>
-  </si>
-  <si>
-    <t>3E2EB90244EE3A05628417144EFE9EBE9C2E8387611E386D8D17A27409681631</t>
-  </si>
-  <si>
-    <t>2185595B2F117FD011DFCFE6D267CCFD39374D9E2FDA469B530487538134B127</t>
+    <t>087B9902304C62F6A80F1F9EBFEAE7B09EB9052FCC91ADA1F9F8062F3DCAD551</t>
+  </si>
+  <si>
+    <t>2D1050189F14D1781653007AC3EBAD59F8615380C0415380F3E16C681BA9FA95</t>
+  </si>
+  <si>
+    <t>2D4089B5C8B6D4C7A9093385AE9913D25ECABE4E426665A683E2EA09E3E67463</t>
+  </si>
+  <si>
+    <t>B75078B3B5405A1BF4B0640F2678B8E4790EC1577E7E39AF296EFEA832278665</t>
+  </si>
+  <si>
+    <t>09E23A0E24DC5D175E8A087D564B4F70D2CDEBEA988E0097412B3014157E7491</t>
+  </si>
+  <si>
+    <t>317AE14B4807351AB5771315703C98D8EB1F8CACF7F2F9057B3C02FD3576122C</t>
   </si>
   <si>
     <t>gon-flixnet-1</t>
   </si>
   <si>
-    <t>4E0336D271A8937331A1843DD251A53E1DFCEE46B72E856B30AAC34B942323DC</t>
-  </si>
-  <si>
-    <t>2CF4F048F3F47B31F4C8EC79590463CF9D12255D5FEEAD362AC1F9AEBE408A97</t>
-  </si>
-  <si>
-    <t>7F41A20BBEC64B1A65D68A7C44E831D98B8B1C5CB9FA3472AA8152D224846A7A</t>
+    <t>856E287ADEBB374DBC63F5AFDC022622AE8CD3AE1B77EAC04EED2556A88F99AC</t>
+  </si>
+  <si>
+    <t>7EA30B964E5CE0574487657D3CBDEFBE3E5B42810F3B2040B2F9904ADC43CA34</t>
+  </si>
+  <si>
+    <t>E9988C4077F43A4F7CC53D396F58C16B58083BDDA87E2C874F43F66792E7483C</t>
   </si>
   <si>
     <t>uni-6</t>
   </si>
   <si>
-    <t>B4E94384FCABCB66FC732E886105F4BB6BE73E21C22B36CF0C0EAD5A9FF9241F</t>
-  </si>
-  <si>
-    <t>166775EB00EAAA17908771BCCD6291EDDB6FF17EF56735A08EE4C51EE01C4377</t>
-  </si>
-  <si>
-    <t>F31B00F6D859ECDD50EE438C4D540D86973D9E04D66BDEB5867C2374AA4E41A6</t>
-  </si>
-  <si>
-    <t>38EBFD447A44D685921A06A933A845D337EC9483C996D869E9AE3D46EC428199</t>
-  </si>
-  <si>
-    <t>5F92D251FF8B103E0137866F767E483D34B4C9F6A5B90D666A79D2343724793A</t>
-  </si>
-  <si>
-    <t>60FC80740C5E50D3EAF966AF08166695DF18E9CA922E68192782CE19215F9C7B</t>
+    <t>6F003389C760F2D643858DAD44D50FCED3E82C593B5F2C7B2257E1E2B1B60602</t>
+  </si>
+  <si>
+    <t>13BD44F1E9E9F56594D1083E89DD2C8A5254A4FE28D1DF0C9F7D6F5BD7DEB2E9</t>
+  </si>
+  <si>
+    <t>101208112FBEC58317FFA4C7B6B158E17D7A536DCBCB4A0982ED22D5D3CDF272</t>
+  </si>
+  <si>
+    <t>97CB3B41F946FA191DE41F4AE8CDEDBC3399BE6164B2EA8F5112441946406506</t>
+  </si>
+  <si>
+    <t>CC23BCC18BDCF78FD4DDE6E28F9CA2BED734078E641C32992116A5FE1C0A9B89</t>
+  </si>
+  <si>
+    <t>F833C629C3DF41D1B4514E9874B5C2C9409B92163E2A2A24EF9EFEB72FA10EDB</t>
   </si>
   <si>
     <t>5E2A6BC5FC790C305D473F62289805CE28A5DDBC42458119452807F159C50009</t>
@@ -369,12 +369,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,7 +402,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,36 +410,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,7 +423,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -462,32 +432,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -499,16 +446,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,7 +463,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,16 +502,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -579,43 +572,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,139 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,33 +783,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,21 +816,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -877,163 +833,200 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,6 +1040,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1423,7 +1421,7 @@
     <col min="2" max="2" width="14.8666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.5809523809524" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.152380952381" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.152380952381" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.152380952381" style="12" customWidth="1"/>
     <col min="6" max="6" width="17.7238095238095" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.5809523809524" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1456,25 +1454,25 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1482,28 +1480,28 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1713,77 +1711,6 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B6"/>
     </sheetView>
   </sheetViews>
@@ -1810,36 +1737,111 @@
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>48</v>
       </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1852,13 +1854,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="A3" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1880,37 +1882,46 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="17.25" customHeight="1" spans="1:3">
+      <c r="A3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:3">
+      <c r="A4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1952,34 +1963,34 @@
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1996,7 +2007,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B6"/>
     </sheetView>
   </sheetViews>
@@ -2023,34 +2034,34 @@
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2138,7 +2149,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
@@ -2656,7 +2667,7 @@
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2722,7 +2733,7 @@
       <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2736,7 +2747,7 @@
       <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2802,13 +2813,13 @@
       <c r="A3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2881,13 +2892,13 @@
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>48</v>
       </c>
     </row>

--- a/nodeiistt/evidence.xlsx
+++ b/nodeiistt/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="17"/>
+    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="106">
   <si>
     <t>TeamName</t>
   </si>
@@ -178,7 +178,7 @@
     <t>elgafar-1</t>
   </si>
   <si>
-    <t>A4352C1E8F2581718A9B96F79C830444502EADD5F6AD2EFE84E8316D5E03BE7D</t>
+    <t>555D3CFE8016FEEE10B7624EC110955FDB6956F8AC40A7982E380AFB6D0861EE</t>
   </si>
   <si>
     <t>ibc/6180E5A0AFE554AA5CC5AEEF90BA95AB3EEE9C6B7554B45714BE30B3F6A2129B</t>
@@ -187,9 +187,6 @@
     <t>uptick_7000-2</t>
   </si>
   <si>
-    <t>2F740CA1EF2C7AA80318BF7DBC5CA124240C55EECDAA800257B1A8A460C5E193</t>
-  </si>
-  <si>
     <t>tx hash on dest chain</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
   </si>
   <si>
     <t>7F02D26D3C822D8D13510FF4B82B73913245A634EB818E48232FBC6AC4F663DC</t>
-  </si>
-  <si>
-    <t>555D3CFE8016FEEE10B7624EC110955FDB6956F8AC40A7982E380AFB6D0861EE</t>
   </si>
   <si>
     <t>ibc/A40CD3D0A45460B9213B21140CE6640C4AFE496F10447784FB2AC34A26D5A8E0</t>
@@ -371,8 +365,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -416,17 +410,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -439,7 +456,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,9 +464,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,24 +488,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,9 +502,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,31 +524,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,31 +566,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,151 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,17 +775,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -812,6 +795,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,120 +862,143 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -977,56 +1007,20 @@
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,11 +1034,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1421,7 +1410,7 @@
     <col min="2" max="2" width="14.8666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.5809523809524" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.152380952381" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.152380952381" style="12" customWidth="1"/>
+    <col min="5" max="5" width="18.152380952381" style="9" customWidth="1"/>
     <col min="6" max="6" width="17.7238095238095" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.5809523809524" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1454,25 +1443,25 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1480,28 +1469,28 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1538,7 +1527,7 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>41</v>
@@ -1546,10 +1535,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1574,7 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>41</v>
@@ -1593,10 +1582,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1632,7 +1621,7 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>41</v>
@@ -1640,10 +1629,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1683,7 +1672,7 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>41</v>
@@ -1691,10 +1680,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1730,41 +1719,41 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A3" s="7" t="s">
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="B5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1801,47 +1790,47 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A3" s="7" t="s">
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1876,52 +1865,52 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="8"/>
+      <c r="B6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1956,42 +1945,42 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A3" s="7" t="s">
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>79</v>
+      <c r="B6" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2007,7 +1996,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B6"/>
     </sheetView>
   </sheetViews>
@@ -2027,41 +2016,41 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A3" s="7" t="s">
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="B5" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2098,31 +2087,31 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>48</v>
@@ -2130,10 +2119,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2215,23 +2204,23 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>45</v>
@@ -2239,15 +2228,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>48</v>
@@ -2255,15 +2244,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>45</v>
@@ -2306,23 +2295,23 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>48</v>
@@ -2330,7 +2319,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>45</v>
@@ -2338,15 +2327,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>45</v>
@@ -2354,7 +2343,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>48</v>
@@ -2397,12 +2386,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2434,12 +2423,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2471,12 +2460,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2508,12 +2497,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2619,7 +2608,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -2667,7 +2656,7 @@
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2684,8 +2673,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -2727,29 +2716,21 @@
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:4">
-      <c r="A4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>48</v>
-      </c>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6"/>
@@ -2771,7 +2752,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -2797,10 +2778,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>41</v>
@@ -2811,15 +2792,15 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2849,7 +2830,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D5"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -2876,10 +2857,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>41</v>
@@ -2889,18 +2870,10 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6"/>
@@ -2947,7 +2920,7 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>41</v>
@@ -2955,7 +2928,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>36</v>
@@ -2994,7 +2967,7 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>41</v>
@@ -3002,10 +2975,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/nodeiistt/evidence.xlsx
+++ b/nodeiistt/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="105">
   <si>
     <t>TeamName</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>NFTID</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
   </si>
   <si>
     <t>6005E1551121039F197FE56E95D9AC675C54603F4DAF36067A61D72AFAFD9D18</t>
@@ -363,12 +360,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +393,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -409,10 +412,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -424,16 +428,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,8 +475,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,17 +505,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,24 +527,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,21 +541,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -566,187 +569,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,21 +778,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -799,26 +787,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,30 +819,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -872,10 +827,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -893,134 +896,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1034,6 +1037,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1410,7 +1420,7 @@
     <col min="2" max="2" width="14.8666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.5809523809524" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.152380952381" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.152380952381" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.152380952381" style="12" customWidth="1"/>
     <col min="6" max="6" width="17.7238095238095" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.5809523809524" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1443,25 +1453,25 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1469,28 +1479,28 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1527,18 +1537,18 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1574,18 +1584,18 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1621,18 +1631,18 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1672,18 +1682,18 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1714,47 +1724,47 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1785,47 +1795,47 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1860,50 +1870,50 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:3">
       <c r="A4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -1940,47 +1950,47 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2011,47 +2021,47 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2082,47 +2092,47 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2199,63 +2209,63 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2290,63 +2300,63 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2386,12 +2396,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2423,12 +2433,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2460,12 +2470,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2497,12 +2507,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2516,13 +2526,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C6"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.0095238095238" style="1" customWidth="1"/>
@@ -2540,58 +2550,47 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
+      <c r="A3" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2629,7 +2628,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
@@ -2637,27 +2636,27 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +2672,7 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
@@ -2695,7 +2694,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
@@ -2703,34 +2702,34 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:4">
       <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6"/>
@@ -2773,35 +2772,35 @@
         <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2829,8 +2828,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -2852,28 +2851,36 @@
         <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="A3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6"/>
@@ -2920,18 +2927,18 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2967,18 +2974,18 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/nodeiistt/evidence.xlsx
+++ b/nodeiistt/evidence.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="105">
   <si>
     <t>TeamName</t>
   </si>
@@ -360,12 +360,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,12 +393,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -412,22 +406,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -436,8 +414,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,10 +438,40 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,16 +483,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -497,23 +513,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,13 +535,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -569,187 +563,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,6 +775,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -802,21 +820,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -824,15 +827,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,6 +846,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -866,27 +869,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,134 +890,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1037,13 +1031,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1420,7 +1407,7 @@
     <col min="2" max="2" width="14.8666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.5809523809524" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.152380952381" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.152380952381" style="12" customWidth="1"/>
+    <col min="5" max="5" width="18.152380952381" style="9" customWidth="1"/>
     <col min="6" max="6" width="17.7238095238095" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.5809523809524" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1453,25 +1440,25 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1479,28 +1466,28 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2655,7 +2642,7 @@
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2715,13 +2702,13 @@
       <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2729,7 +2716,7 @@
       <c r="A4" s="6"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="11"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6"/>
@@ -2793,13 +2780,13 @@
       <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2829,7 +2816,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -2855,30 +2842,16 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>47</v>
       </c>
     </row>

--- a/nodeiistt/evidence.xlsx
+++ b/nodeiistt/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="3" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="96">
   <si>
     <t>TeamName</t>
   </si>
@@ -115,12 +115,6 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>136AEF507B7B7256BD9400927E0BF4D7A2A97FA1BB9C0F0470EB49764BD3B438</t>
   </si>
   <si>
@@ -157,15 +151,6 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
     <t>211DFFB96FEAA8A992F550484982C63F1C8D279A4AD989467D183066F8755655</t>
   </si>
   <si>
@@ -184,12 +169,6 @@
     <t>uptick_7000-2</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
     <t>7F02D26D3C822D8D13510FF4B82B73913245A634EB818E48232FBC6AC4F663DC</t>
   </si>
   <si>
@@ -224,12 +203,6 @@
   </si>
   <si>
     <t>nft14</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
   </si>
   <si>
     <t>68046EECE48FF1D6F4AEA64F48A02122F25E7511061DA394940AB70FDB38C1A4</t>
@@ -1502,10 +1475,88 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1519,24 +1570,20 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1544,18 +1591,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1566,23 +1613,15 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>57</v>
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1591,18 +1630,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1610,31 +1649,43 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,54 +1693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1697,7 +1701,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1711,48 +1715,44 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>63</v>
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>67</v>
+      <c r="A5" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1760,18 +1760,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B7"/>
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1782,52 +1782,49 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:3">
       <c r="A3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="B5" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1835,18 +1832,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C7"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1857,57 +1854,40 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1915,18 +1895,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1937,47 +1917,39 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>63</v>
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>81</v>
+      <c r="A5" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1986,18 +1958,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -2008,47 +1980,39 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>63</v>
+      <c r="A2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>80</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>85</v>
+      <c r="A5" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2057,18 +2021,56 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -2079,48 +2081,60 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>63</v>
+      <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>89</v>
+      <c r="A5" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2128,61 +2142,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2196,154 +2164,55 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>63</v>
+      <c r="A2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>89</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>93</v>
+      <c r="A5" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>92</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>93</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2383,12 +2252,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2420,12 +2289,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2457,12 +2326,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2494,12 +2363,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2533,51 +2402,51 @@
         <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2591,13 +2460,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.0095238095238" style="1" customWidth="1"/>
@@ -2612,38 +2481,24 @@
         <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2660,7 +2515,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -2678,38 +2533,24 @@
         <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" ht="28.5" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>47</v>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2738,7 +2579,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -2756,38 +2597,24 @@
         <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>44</v>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2815,7 +2642,7 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
@@ -2835,24 +2662,24 @@
         <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2878,13 +2705,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -2895,23 +2722,15 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2925,13 +2744,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -2942,23 +2761,15 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>53</v>
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/nodeiistt/evidence.xlsx
+++ b/nodeiistt/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="3" activeTab="20"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="88">
   <si>
     <t>TeamName</t>
   </si>
@@ -62,30 +62,6 @@
   </si>
   <si>
     <t>Community</t>
-  </si>
-  <si>
-    <t>team name</t>
-  </si>
-  <si>
-    <t>addr1</t>
-  </si>
-  <si>
-    <t>addr2</t>
-  </si>
-  <si>
-    <t>addr3</t>
-  </si>
-  <si>
-    <t>addr4</t>
-  </si>
-  <si>
-    <t>addr5</t>
-  </si>
-  <si>
-    <t>discord#1234</t>
-  </si>
-  <si>
-    <t>set none if no community</t>
   </si>
   <si>
     <t>Nodeist</t>
@@ -333,10 +309,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -373,15 +349,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,6 +370,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -403,8 +379,62 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,38 +449,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,45 +484,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,12 +495,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,6 +506,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -548,175 +686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,11 +715,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,11 +756,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,57 +806,16 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,134 +833,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1013,11 +983,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1368,13 +1335,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.5809523809524" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.8666666666667" style="1" customWidth="1"/>
@@ -1425,7 +1392,7 @@
       <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -1434,34 +1401,8 @@
       <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>16</v>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1489,18 +1430,18 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1528,18 +1469,18 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1567,18 +1508,18 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1610,18 +1551,18 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1649,42 +1590,42 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1712,42 +1653,42 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1779,45 +1720,45 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6"/>
     </row>
@@ -1851,42 +1792,42 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1914,42 +1855,42 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1977,42 +1918,42 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2039,18 +1980,18 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2078,58 +2019,58 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2149,7 +2090,7 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
@@ -2161,58 +2102,58 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2247,17 +2188,17 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2284,17 +2225,17 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2321,17 +2262,17 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2358,17 +2299,17 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2384,8 +2325,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -2396,57 +2337,57 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2475,30 +2416,30 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2527,30 +2468,30 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2591,30 +2532,30 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2656,30 +2597,30 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2719,18 +2660,18 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2758,18 +2699,18 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/nodeiistt/evidence.xlsx
+++ b/nodeiistt/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12375" firstSheet="9" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="90">
   <si>
     <t>TeamName</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>The Internal Transfer TxHash on IRISnet</t>
+  </si>
+  <si>
+    <t>850AC11E7C7AE890AADD68E76FF5EC76A971C7035BC83C8E741DBD5861136443</t>
+  </si>
+  <si>
+    <t>C494F419998694B960F2254AF4A06587E96D34BC10B8FAF2522A5FAB76D44BED</t>
   </si>
 </sst>
 </file>
@@ -309,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -341,22 +347,31 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,39 +387,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,28 +401,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -448,8 +409,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,8 +424,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,6 +447,49 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -506,43 +512,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,139 +686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,27 +722,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,35 +751,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,16 +777,51 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,130 +839,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1338,7 +1344,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -2178,7 +2184,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -2214,8 +2220,8 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -2230,12 +2236,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2325,8 +2331,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>

--- a/nodeiistt/evidence.xlsx
+++ b/nodeiistt/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12375" firstSheet="9" activeTab="22"/>
+    <workbookView windowWidth="24225" windowHeight="12375" firstSheet="2" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="111">
   <si>
     <t>TeamName</t>
   </si>
@@ -124,6 +124,69 @@
     <t>ndstnft4</t>
   </si>
   <si>
+    <t>51C1FED0D12E0DFF85D062F0EC5FCAF0EF574E47F61F7418904EF6CE97099520</t>
+  </si>
+  <si>
+    <t>nodeistlast</t>
+  </si>
+  <si>
+    <t>nlf1</t>
+  </si>
+  <si>
+    <t>6C6910A7452A51217D147AC24C76570F8BFAB645392F59441A87AC012BC6C6FF</t>
+  </si>
+  <si>
+    <t>nlf2</t>
+  </si>
+  <si>
+    <t>E48EC7D9C999DDEF9D08BD35F9900ABC85AF6196F9FC8CFAEE9B40A40B444F79</t>
+  </si>
+  <si>
+    <t>nlf3</t>
+  </si>
+  <si>
+    <t>78A5A422A1E69D8E51FCFC5B66090A9842F5F0809BFF8F7FE264B7532EEDB28F</t>
+  </si>
+  <si>
+    <t>nlf4</t>
+  </si>
+  <si>
+    <t>03BF88135D4675592FAB633CE9F71B1B3C66513A8E2B9F6AAE417483D1EE1431</t>
+  </si>
+  <si>
+    <t>nlf5</t>
+  </si>
+  <si>
+    <t>3F202020E91FFDE2B412338443A9201C79CD2A90593EDBC1D53E1875A8DAD33A</t>
+  </si>
+  <si>
+    <t>nlf6</t>
+  </si>
+  <si>
+    <t>86328083B14E6F95CA54210DF37796BFBD9327DB11A9E3B8249400D381D1D5C4</t>
+  </si>
+  <si>
+    <t>nlf7</t>
+  </si>
+  <si>
+    <t>90790A5AA1AFE0CC8986839E50D30822FEDACEDE5167DC8F1121B1B353935C43</t>
+  </si>
+  <si>
+    <t>nlf8</t>
+  </si>
+  <si>
+    <t>F516BC46153376E8B5B7405E93B32DCC1081E68A3C72503B0F64E2D01C918F79</t>
+  </si>
+  <si>
+    <t>nlf9</t>
+  </si>
+  <si>
+    <t>1CFB873712E4645D3BA5EEC8F78576CDB3AFBF38FC4ED13B7F10761EF1D46D8A</t>
+  </si>
+  <si>
+    <t>nlf10</t>
+  </si>
+  <si>
     <t>ChainID</t>
   </si>
   <si>
@@ -136,10 +199,10 @@
     <t>elgafar-1</t>
   </si>
   <si>
-    <t>555D3CFE8016FEEE10B7624EC110955FDB6956F8AC40A7982E380AFB6D0861EE</t>
-  </si>
-  <si>
-    <t>ibc/6180E5A0AFE554AA5CC5AEEF90BA95AB3EEE9C6B7554B45714BE30B3F6A2129B</t>
+    <t>715E8E24EFD0276189C788DA5045D99134AE23F5E04913374A28FC18FD80249C</t>
+  </si>
+  <si>
+    <t>ibc/AA620F1520035027C5AE0C6DE6743C513E90A82E6888D149D2657867DCB8FFC8</t>
   </si>
   <si>
     <t>uptick_7000-2</t>
@@ -148,13 +211,13 @@
     <t>7F02D26D3C822D8D13510FF4B82B73913245A634EB818E48232FBC6AC4F663DC</t>
   </si>
   <si>
+    <t>17DBA46E99FC15116AD8A6037D41298B7AC130E02C280E351561E22E0480BFBB</t>
+  </si>
+  <si>
     <t>ibc/A40CD3D0A45460B9213B21140CE6640C4AFE496F10447784FB2AC34A26D5A8E0</t>
   </si>
   <si>
-    <t>ibc/5EA1741B323CFE4A8C5F403E3697A8C585DCBD665605277FDA800EB746378D6C</t>
-  </si>
-  <si>
-    <t>bft5</t>
+    <t>ibc/80360F1714107DAE893F38F9A479B455D05121A193F07F825B55DC3AB09C0561</t>
   </si>
   <si>
     <t>ibc/0E5766B7D0AE8E97E314C19FA195DBDBF84EDDF2B38221EB5E8740E96C563E70</t>
@@ -211,31 +274,31 @@
     <t>856E287ADEBB374DBC63F5AFDC022622AE8CD3AE1B77EAC04EED2556A88F99AC</t>
   </si>
   <si>
-    <t>7EA30B964E5CE0574487657D3CBDEFBE3E5B42810F3B2040B2F9904ADC43CA34</t>
-  </si>
-  <si>
-    <t>E9988C4077F43A4F7CC53D396F58C16B58083BDDA87E2C874F43F66792E7483C</t>
+    <t>F3738C2C3F91644C4017DE41F205910DE41E97E7540497014685A5C3F5F40936</t>
+  </si>
+  <si>
+    <t>94C304D76E222BDE1F23C0E4F682A2D93E9757EE1916315513A4A626D5F08F72</t>
   </si>
   <si>
     <t>uni-6</t>
   </si>
   <si>
-    <t>6F003389C760F2D643858DAD44D50FCED3E82C593B5F2C7B2257E1E2B1B60602</t>
-  </si>
-  <si>
-    <t>13BD44F1E9E9F56594D1083E89DD2C8A5254A4FE28D1DF0C9F7D6F5BD7DEB2E9</t>
-  </si>
-  <si>
-    <t>101208112FBEC58317FFA4C7B6B158E17D7A536DCBCB4A0982ED22D5D3CDF272</t>
-  </si>
-  <si>
-    <t>97CB3B41F946FA191DE41F4AE8CDEDBC3399BE6164B2EA8F5112441946406506</t>
-  </si>
-  <si>
-    <t>CC23BCC18BDCF78FD4DDE6E28F9CA2BED734078E641C32992116A5FE1C0A9B89</t>
-  </si>
-  <si>
-    <t>F833C629C3DF41D1B4514E9874B5C2C9409B92163E2A2A24EF9EFEB72FA10EDB</t>
+    <t>501D402956C12806DD345822E21D3FEE9CE3D86AA47A42A758C03BAF3FEFB75E</t>
+  </si>
+  <si>
+    <t>F918D07395EECEC591E22E116A8AA42EADFB86C98888648E723489ED583E40C1</t>
+  </si>
+  <si>
+    <t>2233F99F2364FBE66C062CF820AB89A6B07358FA1707759D9321D02AEFA7AD24</t>
+  </si>
+  <si>
+    <t>2E5E02A83ED17C9E35B602A4B0E0B9249C0BF1277FBE6958DB40C406284AD58E</t>
+  </si>
+  <si>
+    <t>74BAC5AA60A594CA5601199BE554081A818ED25FB304FFFAC5205CB9B5AF902D</t>
+  </si>
+  <si>
+    <t>4601CB9B7CA7660992114C97EE14C2024F577A22EE4ED2151AB3EE1A6B7E5990</t>
   </si>
   <si>
     <t>5E2A6BC5FC790C305D473F62289805CE28A5DDBC42458119452807F159C50009</t>
@@ -315,10 +378,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -347,11 +410,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,7 +433,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,9 +507,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,7 +531,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -411,81 +548,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,13 +575,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,31 +665,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,133 +755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,45 +785,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -777,20 +801,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,23 +826,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,127 +905,127 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,10 +1507,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1483,10 +1546,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1522,10 +1585,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1565,10 +1628,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1599,39 +1662,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1662,39 +1725,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1715,7 +1778,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1729,42 +1792,42 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C5" s="6"/>
     </row>
@@ -1786,8 +1849,8 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1801,39 +1864,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1864,39 +1927,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1927,39 +1990,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2028,55 +2091,55 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2111,55 +2174,55 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2199,12 +2262,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2220,7 +2283,7 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2236,12 +2299,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2273,12 +2336,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2310,12 +2373,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2329,13 +2392,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.0095238095238" style="1" customWidth="1"/>
@@ -2394,6 +2457,116 @@
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2431,21 +2604,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2462,14 +2635,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.4285714285714" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
@@ -2483,21 +2656,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" ht="19" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2547,21 +2720,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2590,7 +2763,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -2612,21 +2785,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2674,7 +2847,7 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>25</v>
@@ -2694,7 +2867,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2713,10 +2886,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/nodeiistt/evidence.xlsx
+++ b/nodeiistt/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12375" firstSheet="2" activeTab="16"/>
+    <workbookView windowWidth="24225" windowHeight="12375" firstSheet="12" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="96">
   <si>
     <t>TeamName</t>
   </si>
@@ -124,69 +125,6 @@
     <t>ndstnft4</t>
   </si>
   <si>
-    <t>51C1FED0D12E0DFF85D062F0EC5FCAF0EF574E47F61F7418904EF6CE97099520</t>
-  </si>
-  <si>
-    <t>nodeistlast</t>
-  </si>
-  <si>
-    <t>nlf1</t>
-  </si>
-  <si>
-    <t>6C6910A7452A51217D147AC24C76570F8BFAB645392F59441A87AC012BC6C6FF</t>
-  </si>
-  <si>
-    <t>nlf2</t>
-  </si>
-  <si>
-    <t>E48EC7D9C999DDEF9D08BD35F9900ABC85AF6196F9FC8CFAEE9B40A40B444F79</t>
-  </si>
-  <si>
-    <t>nlf3</t>
-  </si>
-  <si>
-    <t>78A5A422A1E69D8E51FCFC5B66090A9842F5F0809BFF8F7FE264B7532EEDB28F</t>
-  </si>
-  <si>
-    <t>nlf4</t>
-  </si>
-  <si>
-    <t>03BF88135D4675592FAB633CE9F71B1B3C66513A8E2B9F6AAE417483D1EE1431</t>
-  </si>
-  <si>
-    <t>nlf5</t>
-  </si>
-  <si>
-    <t>3F202020E91FFDE2B412338443A9201C79CD2A90593EDBC1D53E1875A8DAD33A</t>
-  </si>
-  <si>
-    <t>nlf6</t>
-  </si>
-  <si>
-    <t>86328083B14E6F95CA54210DF37796BFBD9327DB11A9E3B8249400D381D1D5C4</t>
-  </si>
-  <si>
-    <t>nlf7</t>
-  </si>
-  <si>
-    <t>90790A5AA1AFE0CC8986839E50D30822FEDACEDE5167DC8F1121B1B353935C43</t>
-  </si>
-  <si>
-    <t>nlf8</t>
-  </si>
-  <si>
-    <t>F516BC46153376E8B5B7405E93B32DCC1081E68A3C72503B0F64E2D01C918F79</t>
-  </si>
-  <si>
-    <t>nlf9</t>
-  </si>
-  <si>
-    <t>1CFB873712E4645D3BA5EEC8F78576CDB3AFBF38FC4ED13B7F10761EF1D46D8A</t>
-  </si>
-  <si>
-    <t>nlf10</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
@@ -199,10 +137,10 @@
     <t>elgafar-1</t>
   </si>
   <si>
-    <t>715E8E24EFD0276189C788DA5045D99134AE23F5E04913374A28FC18FD80249C</t>
-  </si>
-  <si>
-    <t>ibc/AA620F1520035027C5AE0C6DE6743C513E90A82E6888D149D2657867DCB8FFC8</t>
+    <t>555D3CFE8016FEEE10B7624EC110955FDB6956F8AC40A7982E380AFB6D0861EE</t>
+  </si>
+  <si>
+    <t>ibc/6180E5A0AFE554AA5CC5AEEF90BA95AB3EEE9C6B7554B45714BE30B3F6A2129B</t>
   </si>
   <si>
     <t>uptick_7000-2</t>
@@ -211,13 +149,13 @@
     <t>7F02D26D3C822D8D13510FF4B82B73913245A634EB818E48232FBC6AC4F663DC</t>
   </si>
   <si>
-    <t>17DBA46E99FC15116AD8A6037D41298B7AC130E02C280E351561E22E0480BFBB</t>
-  </si>
-  <si>
     <t>ibc/A40CD3D0A45460B9213B21140CE6640C4AFE496F10447784FB2AC34A26D5A8E0</t>
   </si>
   <si>
-    <t>ibc/80360F1714107DAE893F38F9A479B455D05121A193F07F825B55DC3AB09C0561</t>
+    <t>ibc/5EA1741B323CFE4A8C5F403E3697A8C585DCBD665605277FDA800EB746378D6C</t>
+  </si>
+  <si>
+    <t>bft5</t>
   </si>
   <si>
     <t>ibc/0E5766B7D0AE8E97E314C19FA195DBDBF84EDDF2B38221EB5E8740E96C563E70</t>
@@ -274,31 +212,31 @@
     <t>856E287ADEBB374DBC63F5AFDC022622AE8CD3AE1B77EAC04EED2556A88F99AC</t>
   </si>
   <si>
-    <t>F3738C2C3F91644C4017DE41F205910DE41E97E7540497014685A5C3F5F40936</t>
-  </si>
-  <si>
-    <t>94C304D76E222BDE1F23C0E4F682A2D93E9757EE1916315513A4A626D5F08F72</t>
+    <t>7EA30B964E5CE0574487657D3CBDEFBE3E5B42810F3B2040B2F9904ADC43CA34</t>
+  </si>
+  <si>
+    <t>E9988C4077F43A4F7CC53D396F58C16B58083BDDA87E2C874F43F66792E7483C</t>
   </si>
   <si>
     <t>uni-6</t>
   </si>
   <si>
-    <t>501D402956C12806DD345822E21D3FEE9CE3D86AA47A42A758C03BAF3FEFB75E</t>
-  </si>
-  <si>
-    <t>F918D07395EECEC591E22E116A8AA42EADFB86C98888648E723489ED583E40C1</t>
-  </si>
-  <si>
-    <t>2233F99F2364FBE66C062CF820AB89A6B07358FA1707759D9321D02AEFA7AD24</t>
-  </si>
-  <si>
-    <t>2E5E02A83ED17C9E35B602A4B0E0B9249C0BF1277FBE6958DB40C406284AD58E</t>
-  </si>
-  <si>
-    <t>74BAC5AA60A594CA5601199BE554081A818ED25FB304FFFAC5205CB9B5AF902D</t>
-  </si>
-  <si>
-    <t>4601CB9B7CA7660992114C97EE14C2024F577A22EE4ED2151AB3EE1A6B7E5990</t>
+    <t>6F003389C760F2D643858DAD44D50FCED3E82C593B5F2C7B2257E1E2B1B60602</t>
+  </si>
+  <si>
+    <t>13BD44F1E9E9F56594D1083E89DD2C8A5254A4FE28D1DF0C9F7D6F5BD7DEB2E9</t>
+  </si>
+  <si>
+    <t>101208112FBEC58317FFA4C7B6B158E17D7A536DCBCB4A0982ED22D5D3CDF272</t>
+  </si>
+  <si>
+    <t>97CB3B41F946FA191DE41F4AE8CDEDBC3399BE6164B2EA8F5112441946406506</t>
+  </si>
+  <si>
+    <t>CC23BCC18BDCF78FD4DDE6E28F9CA2BED734078E641C32992116A5FE1C0A9B89</t>
+  </si>
+  <si>
+    <t>F833C629C3DF41D1B4514E9874B5C2C9409B92163E2A2A24EF9EFEB72FA10EDB</t>
   </si>
   <si>
     <t>5E2A6BC5FC790C305D473F62289805CE28A5DDBC42458119452807F159C50009</t>
@@ -371,6 +309,24 @@
   </si>
   <si>
     <t>C494F419998694B960F2254AF4A06587E96D34BC10B8FAF2522A5FAB76D44BED</t>
+  </si>
+  <si>
+    <t>77731BB31A7A7AB63B420183BB644FBBF57409CD6DA02CC340CE197A52C0DFFB</t>
+  </si>
+  <si>
+    <t>A1FF032EFB0CCDE813F88A0F53CD33B5581B23DE141D9546AE737F239A59E927</t>
+  </si>
+  <si>
+    <t>BD926BB72D9C1910E08AC524CE423B02D184C2D0B103B815D8E16393DD711C0D</t>
+  </si>
+  <si>
+    <t>B150EB770B4AFE9FFCDE9E24928F6982D3B88BB7666CC989C97A03FFE7970149</t>
+  </si>
+  <si>
+    <t>1A9B42256F10166A261AA3AF9957D08DB2C1797ABE4A4D7D186563E5BA262A81</t>
+  </si>
+  <si>
+    <t>ED2D93AB2C9CB218E5090ED0DC178199D507FEBB2EA4A020D9AB1C31C7BE4C43</t>
   </si>
 </sst>
 </file>
@@ -379,9 +335,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -410,6 +366,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -418,7 +382,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,7 +421,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,7 +435,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,15 +464,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,54 +480,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,9 +503,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,187 +531,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,15 +755,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -827,7 +774,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,19 +782,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,6 +803,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -881,163 +828,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1412,39 +1368,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.5809523809524" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.8666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5809523809524" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.152380952381" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5809523809524" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.8666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.5809523809524" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.152380952381" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.152380952381" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.7238095238095" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5809523809524" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7238095238095" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5809523809524" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1493,24 +1449,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1532,24 +1488,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1571,24 +1527,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1614,24 +1570,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1653,48 +1609,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>49</v>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1716,48 +1672,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>49</v>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1778,56 +1734,56 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>49</v>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6"/>
     </row>
@@ -1849,54 +1805,54 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>49</v>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1918,48 +1874,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>49</v>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1981,48 +1937,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>49</v>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2044,14 +2000,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.8666666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2082,64 +2038,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>49</v>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2165,64 +2121,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>49</v>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2252,22 +2208,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>107</v>
+      <c r="A2" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>108</v>
+      <c r="A3" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2284,27 +2240,27 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>109</v>
+      <c r="A2" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>110</v>
+      <c r="A3" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2320,28 +2276,28 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>107</v>
+      <c r="A2" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>108</v>
+      <c r="A3" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2358,31 +2314,63 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>107</v>
+      <c r="A2" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>108</v>
+      <c r="A3" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2392,26 +2380,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.0095238095238" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.8666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.0095238095238" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2457,116 +2445,6 @@
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2588,37 +2466,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.8666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>49</v>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2635,42 +2513,42 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.4285714285714" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.8666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" ht="19" customHeight="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2704,37 +2582,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.8666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>49</v>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2763,43 +2641,43 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.8666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.2952380952381" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.8666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.2952380952381" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>49</v>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2833,21 +2711,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>25</v>
@@ -2867,29 +2745,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
